--- a/data/trans_bre/P07B_R2_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R2_2023-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.053925521752397</v>
+        <v>1.053925521752375</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.01133748846942003</v>
+        <v>0.01133748846941979</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.294952565227325</v>
+        <v>-1.957581325979052</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.024067343170174</v>
+        <v>-0.02037637253407143</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.432400951682141</v>
+        <v>4.169016972525347</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.04873284118812361</v>
+        <v>0.04580321201463418</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>-5.269000909724053</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.05479235714919393</v>
+        <v>-0.05479235714919394</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.548280314560012</v>
+        <v>-8.267308354258892</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08826538130065031</v>
+        <v>-0.08555955221511499</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.146778907776748</v>
+        <v>-2.141838075798424</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02270001531758815</v>
+        <v>-0.02269966589741719</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-4.29888694882925</v>
+        <v>-4.298886948829228</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.04590170683937522</v>
+        <v>-0.045901706839375</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.701049844995689</v>
+        <v>-8.830917751618713</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.09316819001801177</v>
+        <v>-0.09264880594219332</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2285496264302622</v>
+        <v>-0.4286908521983709</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-0.002683152525737645</v>
+        <v>-0.00471420809739187</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-1.555114056409013</v>
+        <v>-1.555114056409035</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.01661715727226245</v>
+        <v>-0.01661715727226268</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.686874786500066</v>
+        <v>-3.872615828062416</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.03919020186139664</v>
+        <v>-0.04087478664334108</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5563145823644996</v>
+        <v>0.7152387735383755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.005915930386939357</v>
+        <v>0.007900990388319961</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-5.019561994711841</v>
+        <v>-5.01956199471183</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.05437722844885742</v>
+        <v>-0.0543772284488573</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.009623467470604</v>
+        <v>-7.955147145644776</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.08567768407734198</v>
+        <v>-0.08499816850092826</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.076799620014184</v>
+        <v>-2.324189597228466</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.02323196166661652</v>
+        <v>-0.0258535047612867</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>-6.178172708993679</v>
+        <v>-6.178172708993646</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.06463260420719107</v>
+        <v>-0.06463260420719072</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-9.160686937400671</v>
+        <v>-9.258120625845493</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09360461877527028</v>
+        <v>-0.09505178248171675</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-1.836428275274755</v>
+        <v>-2.186854534111771</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01943390251288193</v>
+        <v>-0.02365199929436428</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-3.449212569723503</v>
+        <v>-3.449212569723537</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>-0.03677827058638817</v>
+        <v>-0.03677827058638852</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.6226805049592</v>
+        <v>-4.742483791056778</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.04916789044364833</v>
+        <v>-0.05020763721633126</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.256653393630173</v>
+        <v>-2.15661697794524</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>-0.02425998880584078</v>
+        <v>-0.02310450385671766</v>
       </c>
     </row>
     <row r="25">
